--- a/Example3_2020Entry/forBot_StudentRequestList.xlsx
+++ b/Example3_2020Entry/forBot_StudentRequestList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/Example3_2020Entry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21F13DD-39F2-FB4B-8A46-D2A35B882EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C596ABF0-086E-E14E-818C-26DFED2CFECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="9440" windowWidth="26840" windowHeight="15940" xr2:uid="{EE4E4D05-660A-6346-B2E4-3D3D0A7E7691}"/>
+    <workbookView xWindow="37140" yWindow="4160" windowWidth="26840" windowHeight="15940" xr2:uid="{EE4E4D05-660A-6346-B2E4-3D3D0A7E7691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Athreya, Advait</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Herat, Samantha</t>
+  </si>
+  <si>
+    <t>Lander</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,8 +638,11 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
